--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H2">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I2">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J2">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1071.143962985973</v>
+        <v>1094.98590812475</v>
       </c>
       <c r="R2">
-        <v>9640.295666873759</v>
+        <v>9854.873173122751</v>
       </c>
       <c r="S2">
-        <v>0.411460179631852</v>
+        <v>0.3363356016793225</v>
       </c>
       <c r="T2">
-        <v>0.411460179631852</v>
+        <v>0.3363356016793225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H3">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I3">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J3">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>196.8000618013866</v>
+        <v>176.284073272416</v>
       </c>
       <c r="R3">
-        <v>1771.20055621248</v>
+        <v>1586.556659451744</v>
       </c>
       <c r="S3">
-        <v>0.07559711073255473</v>
+        <v>0.05414737250098466</v>
       </c>
       <c r="T3">
-        <v>0.07559711073255473</v>
+        <v>0.05414737250098466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H4">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I4">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J4">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>218.2566802594667</v>
+        <v>258.615693171258</v>
       </c>
       <c r="R4">
-        <v>1964.3101223352</v>
+        <v>2327.541238541322</v>
       </c>
       <c r="S4">
-        <v>0.08383927461540278</v>
+        <v>0.07943633257841017</v>
       </c>
       <c r="T4">
-        <v>0.08383927461540278</v>
+        <v>0.07943633257841017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H5">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I5">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J5">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>273.52688877976</v>
+        <v>324.256206347058</v>
       </c>
       <c r="R5">
-        <v>2461.74199901784</v>
+        <v>2918.305857123522</v>
       </c>
       <c r="S5">
-        <v>0.1050703049081512</v>
+        <v>0.09959845642832454</v>
       </c>
       <c r="T5">
-        <v>0.1050703049081512</v>
+        <v>0.09959845642832454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H6">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I6">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J6">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>233.6757688941599</v>
+        <v>167.730817197456</v>
       </c>
       <c r="R6">
-        <v>2103.08192004744</v>
+        <v>1509.577354777104</v>
       </c>
       <c r="S6">
-        <v>0.08976223287183037</v>
+        <v>0.05152015647295771</v>
       </c>
       <c r="T6">
-        <v>0.08976223287183037</v>
+        <v>0.05152015647295771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
         <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>44.49054361921245</v>
+        <v>50.773903299</v>
       </c>
       <c r="R7">
-        <v>400.414892572912</v>
+        <v>456.965129691</v>
       </c>
       <c r="S7">
-        <v>0.01709022101795632</v>
+        <v>0.01559569962404606</v>
       </c>
       <c r="T7">
-        <v>0.01709022101795631</v>
+        <v>0.01559569962404606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
         <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
-        <v>8.17419696735289</v>
+        <v>8.174196967352888</v>
       </c>
       <c r="R8">
-        <v>73.567772706176</v>
+        <v>73.56777270617599</v>
       </c>
       <c r="S8">
-        <v>0.003139966866038532</v>
+        <v>0.002510784325953815</v>
       </c>
       <c r="T8">
-        <v>0.003139966866038532</v>
+        <v>0.002510784325953815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
         <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>9.065409215582223</v>
+        <v>11.99186957498756</v>
       </c>
       <c r="R9">
-        <v>81.58868294024001</v>
+        <v>107.926826174888</v>
       </c>
       <c r="S9">
-        <v>0.003482309599058585</v>
+        <v>0.003683419703245984</v>
       </c>
       <c r="T9">
-        <v>0.003482309599058584</v>
+        <v>0.003683419703245984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
         <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>11.36108720844534</v>
+        <v>15.03558460707644</v>
       </c>
       <c r="R10">
-        <v>102.249784876008</v>
+        <v>135.320261463688</v>
       </c>
       <c r="S10">
-        <v>0.004364151920876081</v>
+        <v>0.004618326462376061</v>
       </c>
       <c r="T10">
-        <v>0.00436415192087608</v>
+        <v>0.004618326462376061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
         <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>9.705849398391999</v>
+        <v>7.777587117290666</v>
       </c>
       <c r="R11">
-        <v>87.352644585528</v>
+        <v>69.99828405561598</v>
       </c>
       <c r="S11">
-        <v>0.003728322872501099</v>
+        <v>0.002388961742153562</v>
       </c>
       <c r="T11">
-        <v>0.003728322872501098</v>
+        <v>0.002388961742153562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H12">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>62.0854892431791</v>
+        <v>384.8741278931251</v>
       </c>
       <c r="R12">
-        <v>558.7694031886119</v>
+        <v>3463.867151038125</v>
       </c>
       <c r="S12">
-        <v>0.02384899456961642</v>
+        <v>0.1182178422710725</v>
       </c>
       <c r="T12">
-        <v>0.02384899456961642</v>
+        <v>0.1182178422710725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H13">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>11.40689631108622</v>
+        <v>61.96169143250668</v>
       </c>
       <c r="R13">
-        <v>102.662066799776</v>
+        <v>557.6552228925601</v>
       </c>
       <c r="S13">
-        <v>0.004381748642001083</v>
+        <v>0.01903213786989339</v>
       </c>
       <c r="T13">
-        <v>0.004381748642001083</v>
+        <v>0.01903213786989338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H14">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>12.65056168241555</v>
+        <v>90.90024687096169</v>
       </c>
       <c r="R14">
-        <v>113.85505514174</v>
+        <v>818.1022218386552</v>
       </c>
       <c r="S14">
-        <v>0.004859479735833316</v>
+        <v>0.02792089742643585</v>
       </c>
       <c r="T14">
-        <v>0.004859479735833315</v>
+        <v>0.02792089742643585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H15">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>15.85412540039533</v>
+        <v>113.9720828421284</v>
       </c>
       <c r="R15">
-        <v>142.687128603558</v>
+        <v>1025.748745579155</v>
       </c>
       <c r="S15">
-        <v>0.006090069599018031</v>
+        <v>0.03500763687726438</v>
       </c>
       <c r="T15">
-        <v>0.00609006959901803</v>
+        <v>0.03500763687726438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H16">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>13.544280635842</v>
+        <v>58.95532674044001</v>
       </c>
       <c r="R16">
-        <v>121.898525722578</v>
+        <v>530.5979406639601</v>
       </c>
       <c r="S16">
-        <v>0.00520278537338005</v>
+        <v>0.01810870363199951</v>
       </c>
       <c r="T16">
-        <v>0.005202785373380049</v>
+        <v>0.01810870363199951</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H17">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>90.95968413173287</v>
+        <v>99.731547259875</v>
       </c>
       <c r="R17">
-        <v>818.6371571855959</v>
+        <v>897.583925338875</v>
       </c>
       <c r="S17">
-        <v>0.0349404835067809</v>
+        <v>0.03063351747741242</v>
       </c>
       <c r="T17">
-        <v>0.0349404835067809</v>
+        <v>0.03063351747741243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H18">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>16.71191929108977</v>
+        <v>16.05599054223467</v>
       </c>
       <c r="R18">
-        <v>150.407273619808</v>
+        <v>144.503914880112</v>
       </c>
       <c r="S18">
-        <v>0.006419575286907403</v>
+        <v>0.004931754097939287</v>
       </c>
       <c r="T18">
-        <v>0.006419575286907403</v>
+        <v>0.004931754097939288</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H19">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>18.53397804782444</v>
+        <v>23.55477183247567</v>
       </c>
       <c r="R19">
-        <v>166.80580243042</v>
+        <v>211.992946492281</v>
       </c>
       <c r="S19">
-        <v>0.007119485522368118</v>
+        <v>0.007235077910968225</v>
       </c>
       <c r="T19">
-        <v>0.007119485522368117</v>
+        <v>0.007235077910968226</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H20">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>23.22742811861266</v>
+        <v>29.53332360504233</v>
       </c>
       <c r="R20">
-        <v>209.046853067514</v>
+        <v>265.799912445381</v>
       </c>
       <c r="S20">
-        <v>0.008922387724081726</v>
+        <v>0.009071448400010264</v>
       </c>
       <c r="T20">
-        <v>0.008922387724081724</v>
+        <v>0.009071448400010266</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H21">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>19.843340262686</v>
+        <v>15.276958176488</v>
       </c>
       <c r="R21">
-        <v>178.5900623641739</v>
+        <v>137.492623588392</v>
       </c>
       <c r="S21">
-        <v>0.007622452845853046</v>
+        <v>0.004692466708469778</v>
       </c>
       <c r="T21">
-        <v>0.007622452845853044</v>
+        <v>0.004692466708469779</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H22">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I22">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J22">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>130.175292523136</v>
+        <v>132.789183148125</v>
       </c>
       <c r="R22">
-        <v>1171.577632708224</v>
+        <v>1195.102648333125</v>
       </c>
       <c r="S22">
-        <v>0.05000443553440427</v>
+        <v>0.04078749276976278</v>
       </c>
       <c r="T22">
-        <v>0.05000443553440427</v>
+        <v>0.04078749276976278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H23">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I23">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J23">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>23.916958409728</v>
+        <v>21.37800853707556</v>
       </c>
       <c r="R23">
-        <v>215.252625687552</v>
+        <v>192.40207683368</v>
       </c>
       <c r="S23">
-        <v>0.009187258056406637</v>
+        <v>0.006566463833618426</v>
       </c>
       <c r="T23">
-        <v>0.009187258056406637</v>
+        <v>0.006566463833618426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H24">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I24">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J24">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>26.52456455872</v>
+        <v>31.36238228335723</v>
       </c>
       <c r="R24">
-        <v>238.72108102848</v>
+        <v>282.261440550215</v>
       </c>
       <c r="S24">
-        <v>0.01018892182108158</v>
+        <v>0.009633261612868288</v>
       </c>
       <c r="T24">
-        <v>0.01018892182108158</v>
+        <v>0.009633261612868288</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H25">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I25">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J25">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>33.241510002624</v>
+        <v>39.32262182741278</v>
       </c>
       <c r="R25">
-        <v>299.173590023616</v>
+        <v>353.903596446715</v>
       </c>
       <c r="S25">
-        <v>0.01276911241583759</v>
+        <v>0.01207832682941209</v>
       </c>
       <c r="T25">
-        <v>0.01276911241583759</v>
+        <v>0.01207832682941209</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H26">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I26">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J26">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>28.39843440518399</v>
+        <v>20.34075328198666</v>
       </c>
       <c r="R26">
-        <v>255.5859096466559</v>
+        <v>183.06677953788</v>
       </c>
       <c r="S26">
-        <v>0.01090873433020822</v>
+        <v>0.006247860765097826</v>
       </c>
       <c r="T26">
-        <v>0.01090873433020822</v>
+        <v>0.006247860765097826</v>
       </c>
     </row>
   </sheetData>
